--- a/application/views/rpt/CheckoutResult.xlsx
+++ b/application/views/rpt/CheckoutResult.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="7176" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
     <sheet name="Проверка" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Проверка!$A$1:$H$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Проверка!$A$1:$H$6</definedName>
   </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Код</t>
   </si>
@@ -72,9 +72,6 @@
     <t>{$v-&gt;head-&gt;modifier_nick}</t>
   </si>
   <si>
-    <t>Список проверки {$v-&gt;head-&gt;checkout_name} от {$v-&gt;head-&gt;cstamp_dmy}</t>
-  </si>
-  <si>
     <t>{$v-&gt;rows[]-&gt;ru}</t>
   </si>
   <si>
@@ -85,6 +82,33 @@
   </si>
   <si>
     <t>Рез.</t>
+  </si>
+  <si>
+    <t>Операции по проверке</t>
+  </si>
+  <si>
+    <t>{$v-&gt;log[]-&gt;i}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;log[]-&gt;product_code}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;log[]-&gt;ru}</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>{$v-&gt;log[]-&gt;product_unit}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;log[]-&gt;operation_quantity}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;log[]-&gt;cstamp_dmy}</t>
+  </si>
+  <si>
+    <t>Список проверки "{$v-&gt;head-&gt;checkout_name}" от {$v-&gt;head-&gt;cstamp_dmy}</t>
   </si>
 </sst>
 </file>
@@ -158,7 +182,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,7 +191,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,78 +296,56 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,65 +362,167 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -722,9 +838,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -741,136 +857,206 @@
     <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="F10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>19</v>
-      </c>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E8:H8"/>
+  <mergeCells count="7">
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6:G6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E11:F11">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
